--- a/example_grouped.xlsx
+++ b/example_grouped.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sorted by similarity</t>
+          <t>Case description</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -447,13 +447,18 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Group Size</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Similar case descriptions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error when simulating in SAP</t>
+          <t>error in SAP</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,6 +466,83 @@
       </c>
       <c r="C2" t="n">
         <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['error in SAP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>simulation error</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['simulation error']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>error when simulating in SAP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['error when simulating in SAP']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>document stuck processing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['document stuck processing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>why is document stuck in processed state</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['why is document stuck in processed state']</t>
+        </is>
       </c>
     </row>
   </sheetData>
